--- a/WorldReader5/output/Result.xlsx
+++ b/WorldReader5/output/Result.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,11 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>

--- a/WorldReader5/output/Result.xlsx
+++ b/WorldReader5/output/Result.xlsx
@@ -19,7 +19,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>150,23</t>
+  </si>
+  <si>
+    <t>набережная реки Карповки д.12</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,7 +350,18 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/WorldReader5/output/Result.xlsx
+++ b/WorldReader5/output/Result.xlsx
@@ -19,12 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
   <si>
-    <t>150,23</t>
+    <t>vika</t>
   </si>
   <si>
-    <t>набережная реки Карповки д.12</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -346,19 +346,17 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L3"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="36.85546875" collapsed="true"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/WorldReader5/output/Result.xlsx
+++ b/WorldReader5/output/Result.xlsx
@@ -19,12 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>vika</t>
+    <t>150,23</t>
   </si>
   <si>
-    <t/>
+    <t>набережная реки Карповки д.12</t>
   </si>
 </sst>
 </file>
@@ -346,7 +346,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -355,8 +355,13 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/WorldReader5/output/Result.xlsx
+++ b/WorldReader5/output/Result.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,19 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>150,23</t>
-  </si>
-  <si>
-    <t>набережная реки Карповки д.12</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -346,25 +338,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="36.85546875" collapsed="true"/>
+    <col min="1" max="1" width="36.85546875" customWidth="1" collapsed="1"/>
   </cols>
-  <sheetData>
-    <row r="2">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/WorldReader5/output/Result.xlsx
+++ b/WorldReader5/output/Result.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,11 +19,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>150,23</t>
+  </si>
+  <si>
+    <t>набережная реки Карповки д.12</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -343,9 +351,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.85546875" collapsed="true"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>